--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.84884527839952</v>
+        <v>0.5388240000000001</v>
       </c>
       <c r="H2">
-        <v>1.84884527839952</v>
+        <v>1.616472</v>
       </c>
       <c r="I2">
-        <v>0.1932968815871585</v>
+        <v>0.05035277456536845</v>
       </c>
       <c r="J2">
-        <v>0.1932968815871585</v>
+        <v>0.05035277456536844</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>132.9858334694442</v>
+        <v>47.38487189550401</v>
       </c>
       <c r="R2">
-        <v>132.9858334694442</v>
+        <v>426.4638470595361</v>
       </c>
       <c r="S2">
-        <v>0.07099752126517692</v>
+        <v>0.02069162297191077</v>
       </c>
       <c r="T2">
-        <v>0.07099752126517692</v>
+        <v>0.02069162297191076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.84884527839952</v>
+        <v>0.5388240000000001</v>
       </c>
       <c r="H3">
-        <v>1.84884527839952</v>
+        <v>1.616472</v>
       </c>
       <c r="I3">
-        <v>0.1932968815871585</v>
+        <v>0.05035277456536845</v>
       </c>
       <c r="J3">
-        <v>0.1932968815871585</v>
+        <v>0.05035277456536844</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>96.93713786267348</v>
+        <v>28.256992582104</v>
       </c>
       <c r="R3">
-        <v>96.93713786267348</v>
+        <v>254.312933238936</v>
       </c>
       <c r="S3">
-        <v>0.05175210266567133</v>
+        <v>0.01233902326713796</v>
       </c>
       <c r="T3">
-        <v>0.05175210266567133</v>
+        <v>0.01233902326713795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.84884527839952</v>
+        <v>0.5388240000000001</v>
       </c>
       <c r="H4">
-        <v>1.84884527839952</v>
+        <v>1.616472</v>
       </c>
       <c r="I4">
-        <v>0.1932968815871585</v>
+        <v>0.05035277456536845</v>
       </c>
       <c r="J4">
-        <v>0.1932968815871585</v>
+        <v>0.05035277456536844</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>97.82416038135959</v>
+        <v>29.45613892821601</v>
       </c>
       <c r="R4">
-        <v>97.82416038135959</v>
+        <v>265.105250353944</v>
       </c>
       <c r="S4">
-        <v>0.05222565987466216</v>
+        <v>0.01286265629787848</v>
       </c>
       <c r="T4">
-        <v>0.05222565987466216</v>
+        <v>0.01286265629787847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.84884527839952</v>
+        <v>0.5388240000000001</v>
       </c>
       <c r="H5">
-        <v>1.84884527839952</v>
+        <v>1.616472</v>
       </c>
       <c r="I5">
-        <v>0.1932968815871585</v>
+        <v>0.05035277456536845</v>
       </c>
       <c r="J5">
-        <v>0.1932968815871585</v>
+        <v>0.05035277456536844</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>34.31828193528018</v>
+        <v>10.21241838188</v>
       </c>
       <c r="R5">
-        <v>34.31828193528018</v>
+        <v>91.91176543692002</v>
       </c>
       <c r="S5">
-        <v>0.0183215977816481</v>
+        <v>0.004459472028441251</v>
       </c>
       <c r="T5">
-        <v>0.0183215977816481</v>
+        <v>0.004459472028441249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.71595092120118</v>
+        <v>2.040291</v>
       </c>
       <c r="H6">
-        <v>7.71595092120118</v>
+        <v>6.120873</v>
       </c>
       <c r="I6">
-        <v>0.8067031184128415</v>
+        <v>0.1906639510689022</v>
       </c>
       <c r="J6">
-        <v>0.8067031184128415</v>
+        <v>0.1906639510689021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>555.0016414318528</v>
+        <v>179.425800752286</v>
       </c>
       <c r="R6">
-        <v>555.0016414318528</v>
+        <v>1614.832206770574</v>
       </c>
       <c r="S6">
-        <v>0.2963002886229965</v>
+        <v>0.07835013311393477</v>
       </c>
       <c r="T6">
-        <v>0.2963002886229965</v>
+        <v>0.07835013311393474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.71595092120118</v>
+        <v>2.040291</v>
       </c>
       <c r="H7">
-        <v>7.71595092120118</v>
+        <v>6.120873</v>
       </c>
       <c r="I7">
-        <v>0.8067031184128415</v>
+        <v>0.1906639510689022</v>
       </c>
       <c r="J7">
-        <v>0.8067031184128415</v>
+        <v>0.1906639510689021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>404.5564044372527</v>
+        <v>106.996881453561</v>
       </c>
       <c r="R7">
-        <v>404.5564044372527</v>
+        <v>962.971933082049</v>
       </c>
       <c r="S7">
-        <v>0.2159816664501851</v>
+        <v>0.04672248845770078</v>
       </c>
       <c r="T7">
-        <v>0.2159816664501851</v>
+        <v>0.04672248845770077</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.71595092120118</v>
+        <v>2.040291</v>
       </c>
       <c r="H8">
-        <v>7.71595092120118</v>
+        <v>6.120873</v>
       </c>
       <c r="I8">
-        <v>0.8067031184128415</v>
+        <v>0.1906639510689022</v>
       </c>
       <c r="J8">
-        <v>0.8067031184128415</v>
+        <v>0.1906639510689021</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>408.2582946387449</v>
+        <v>111.537524590569</v>
       </c>
       <c r="R8">
-        <v>408.2582946387449</v>
+        <v>1003.837721315121</v>
       </c>
       <c r="S8">
-        <v>0.2179580049927576</v>
+        <v>0.04870525789618645</v>
       </c>
       <c r="T8">
-        <v>0.2179580049927576</v>
+        <v>0.04870525789618643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.040291</v>
+      </c>
+      <c r="H9">
+        <v>6.120873</v>
+      </c>
+      <c r="I9">
+        <v>0.1906639510689022</v>
+      </c>
+      <c r="J9">
+        <v>0.1906639510689021</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N9">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P9">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q9">
+        <v>38.669965170045</v>
+      </c>
+      <c r="R9">
+        <v>348.029686530405</v>
+      </c>
+      <c r="S9">
+        <v>0.01688607160108018</v>
+      </c>
+      <c r="T9">
+        <v>0.01688607160108017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.016138</v>
+      </c>
+      <c r="H10">
+        <v>0.048414</v>
+      </c>
+      <c r="I10">
+        <v>0.001508086269238037</v>
+      </c>
+      <c r="J10">
+        <v>0.001508086269238037</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>87.94127933333334</v>
+      </c>
+      <c r="N10">
+        <v>263.823838</v>
+      </c>
+      <c r="O10">
+        <v>0.4109331243514438</v>
+      </c>
+      <c r="P10">
+        <v>0.4109331243514437</v>
+      </c>
+      <c r="Q10">
+        <v>1.419196365881333</v>
+      </c>
+      <c r="R10">
+        <v>12.772767292932</v>
+      </c>
+      <c r="S10">
+        <v>0.0006197226024094991</v>
+      </c>
+      <c r="T10">
+        <v>0.000619722602409499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.016138</v>
+      </c>
+      <c r="H11">
+        <v>0.048414</v>
+      </c>
+      <c r="I11">
+        <v>0.001508086269238037</v>
+      </c>
+      <c r="J11">
+        <v>0.001508086269238037</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>52.441971</v>
+      </c>
+      <c r="N11">
+        <v>157.325913</v>
+      </c>
+      <c r="O11">
+        <v>0.2450515065683088</v>
+      </c>
+      <c r="P11">
+        <v>0.2450515065683087</v>
+      </c>
+      <c r="Q11">
+        <v>0.846308527998</v>
+      </c>
+      <c r="R11">
+        <v>7.616776751982001</v>
+      </c>
+      <c r="S11">
+        <v>0.000369558812311761</v>
+      </c>
+      <c r="T11">
+        <v>0.000369558812311761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.016138</v>
+      </c>
+      <c r="H12">
+        <v>0.048414</v>
+      </c>
+      <c r="I12">
+        <v>0.001508086269238037</v>
+      </c>
+      <c r="J12">
+        <v>0.001508086269238037</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.667459</v>
+      </c>
+      <c r="N12">
+        <v>164.002377</v>
+      </c>
+      <c r="O12">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="P12">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="Q12">
+        <v>0.882223453342</v>
+      </c>
+      <c r="R12">
+        <v>7.940011080077999</v>
+      </c>
+      <c r="S12">
+        <v>0.0003852418365461872</v>
+      </c>
+      <c r="T12">
+        <v>0.0003852418365461871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.016138</v>
+      </c>
+      <c r="H13">
+        <v>0.048414</v>
+      </c>
+      <c r="I13">
+        <v>0.001508086269238037</v>
+      </c>
+      <c r="J13">
+        <v>0.001508086269238037</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N13">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O13">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P13">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q13">
+        <v>0.3058661229766667</v>
+      </c>
+      <c r="R13">
+        <v>2.75279510679</v>
+      </c>
+      <c r="S13">
+        <v>0.0001335630179705895</v>
+      </c>
+      <c r="T13">
+        <v>0.0001335630179705894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.105726333333333</v>
+      </c>
+      <c r="H14">
+        <v>24.317179</v>
+      </c>
+      <c r="I14">
+        <v>0.7574751880964914</v>
+      </c>
+      <c r="J14">
+        <v>0.7574751880964913</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>87.94127933333334</v>
+      </c>
+      <c r="N14">
+        <v>263.823838</v>
+      </c>
+      <c r="O14">
+        <v>0.4109331243514438</v>
+      </c>
+      <c r="P14">
+        <v>0.4109331243514437</v>
+      </c>
+      <c r="Q14">
+        <v>712.8279436792225</v>
+      </c>
+      <c r="R14">
+        <v>6415.451493113002</v>
+      </c>
+      <c r="S14">
+        <v>0.3112716456631888</v>
+      </c>
+      <c r="T14">
+        <v>0.3112716456631887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.71595092120118</v>
-      </c>
-      <c r="H9">
-        <v>7.71595092120118</v>
-      </c>
-      <c r="I9">
-        <v>0.8067031184128415</v>
-      </c>
-      <c r="J9">
-        <v>0.8067031184128415</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.5620085878621</v>
-      </c>
-      <c r="N9">
-        <v>18.5620085878621</v>
-      </c>
-      <c r="O9">
-        <v>0.09478475612855036</v>
-      </c>
-      <c r="P9">
-        <v>0.09478475612855036</v>
-      </c>
-      <c r="Q9">
-        <v>143.2235472628588</v>
-      </c>
-      <c r="R9">
-        <v>143.2235472628588</v>
-      </c>
-      <c r="S9">
-        <v>0.07646315834690226</v>
-      </c>
-      <c r="T9">
-        <v>0.07646315834690226</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.105726333333333</v>
+      </c>
+      <c r="H15">
+        <v>24.317179</v>
+      </c>
+      <c r="I15">
+        <v>0.7574751880964914</v>
+      </c>
+      <c r="J15">
+        <v>0.7574751880964913</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>52.441971</v>
+      </c>
+      <c r="N15">
+        <v>157.325913</v>
+      </c>
+      <c r="O15">
+        <v>0.2450515065683088</v>
+      </c>
+      <c r="P15">
+        <v>0.2450515065683087</v>
+      </c>
+      <c r="Q15">
+        <v>425.080265306603</v>
+      </c>
+      <c r="R15">
+        <v>3825.722387759427</v>
+      </c>
+      <c r="S15">
+        <v>0.1856204360311583</v>
+      </c>
+      <c r="T15">
+        <v>0.1856204360311582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.105726333333333</v>
+      </c>
+      <c r="H16">
+        <v>24.317179</v>
+      </c>
+      <c r="I16">
+        <v>0.7574751880964914</v>
+      </c>
+      <c r="J16">
+        <v>0.7574751880964913</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.667459</v>
+      </c>
+      <c r="N16">
+        <v>164.002377</v>
+      </c>
+      <c r="O16">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="P16">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="Q16">
+        <v>443.1194619927203</v>
+      </c>
+      <c r="R16">
+        <v>3988.075157934483</v>
+      </c>
+      <c r="S16">
+        <v>0.1934976390627169</v>
+      </c>
+      <c r="T16">
+        <v>0.1934976390627169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.105726333333333</v>
+      </c>
+      <c r="H17">
+        <v>24.317179</v>
+      </c>
+      <c r="I17">
+        <v>0.7574751880964914</v>
+      </c>
+      <c r="J17">
+        <v>0.7574751880964913</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N17">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O17">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P17">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q17">
+        <v>153.6291416214239</v>
+      </c>
+      <c r="R17">
+        <v>1382.662274592815</v>
+      </c>
+      <c r="S17">
+        <v>0.06708546733942745</v>
+      </c>
+      <c r="T17">
+        <v>0.06708546733942743</v>
       </c>
     </row>
   </sheetData>
